--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-125706.8935542297</v>
+        <v>-127912.9869606686</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604725</v>
+        <v>7094780.682604727</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>157.9027224984217</v>
+        <v>14.03010001174249</v>
       </c>
       <c r="H2" t="n">
         <v>326.4414032841481</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208644</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.926802368667</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776875</v>
+        <v>138.2012982140824</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>46.36558293808253</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>10.31968001859073</v>
+        <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
         <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154854</v>
+        <v>65.95263903154851</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015514</v>
+        <v>57.88099638015509</v>
       </c>
       <c r="S3" t="n">
         <v>159.0353604252219</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>16.57859913019133</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1516959462661</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>133.2804993215466</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>192.7822984745795</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>195.7765238144135</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498666</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -990,7 +990,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>197.5924697752169</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>389.2257134480174</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>159.8300560512047</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>155.4526127311942</v>
+        <v>1.706926911161502</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722629</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>1.773982476025485</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>82.39501537729528</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.5111949938245</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>90.41948680756543</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>84.69473660442802</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>274.9336677007099</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>114.3176763163437</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>108.4909760283624</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4.043187116399224</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>162.7251499494557</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.6898441249712</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>181.4487096095776</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,16 +3004,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>270.0697021486463</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>137.647063749071</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>231.9105065393954</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>209.5675193320713</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C35" t="n">
         <v>329.7774754849618</v>
@@ -3272,7 +3272,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E35" t="n">
-        <v>346.4349537862161</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F35" t="n">
         <v>371.3806294556657</v>
@@ -3284,7 +3284,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I35" t="n">
-        <v>6.08151348688024</v>
+        <v>6.081513486880155</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213012</v>
+        <v>73.69234550213002</v>
       </c>
       <c r="T35" t="n">
         <v>168.4225538535744</v>
       </c>
       <c r="U35" t="n">
-        <v>215.4997556728563</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V35" t="n">
-        <v>292.2568421840892</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W35" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X35" t="n">
         <v>334.2356843924233</v>
       </c>
       <c r="Y35" t="n">
-        <v>350.7425223700079</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958916</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C37" t="n">
         <v>131.7514048125821</v>
@@ -3430,19 +3430,19 @@
         <v>113.1200567321666</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>82.16336697025871</v>
       </c>
       <c r="F37" t="n">
-        <v>77.70885356620892</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H37" t="n">
-        <v>109.2595986282751</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379238</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400162</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S37" t="n">
-        <v>154.2736090453962</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901235</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>250.7164219195672</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V37" t="n">
-        <v>216.6422270377823</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W37" t="n">
-        <v>251.0275820505453</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X37" t="n">
         <v>190.2142391029914</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.0892370660491</v>
+        <v>183.089237066049</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C38" t="n">
         <v>329.7774754849618</v>
@@ -3509,7 +3509,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E38" t="n">
-        <v>346.4349537862161</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F38" t="n">
         <v>371.3806294556657</v>
@@ -3521,7 +3521,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I38" t="n">
-        <v>6.08151348688024</v>
+        <v>6.081513486880162</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213012</v>
+        <v>73.69234550213005</v>
       </c>
       <c r="T38" t="n">
         <v>168.4225538535744</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728563</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V38" t="n">
-        <v>292.2568421840892</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W38" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X38" t="n">
         <v>334.2356843924233</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700079</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.3365638958916</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C40" t="n">
         <v>131.7514048125821</v>
@@ -3667,19 +3667,19 @@
         <v>113.1200567321666</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6151979772279434</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G40" t="n">
-        <v>130.5303919729825</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109.2595986282751</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379238</v>
+        <v>60.8570041237923</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S40" t="n">
-        <v>154.2736090453962</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T40" t="n">
-        <v>184.0535329901235</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7164219195672</v>
+        <v>107.561097388369</v>
       </c>
       <c r="V40" t="n">
-        <v>216.6422270377823</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W40" t="n">
-        <v>251.0275820505453</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X40" t="n">
         <v>190.2142391029914</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.0892370660491</v>
+        <v>183.089237066049</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C41" t="n">
         <v>329.7774754849618</v>
@@ -3746,7 +3746,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E41" t="n">
-        <v>346.4349537862161</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F41" t="n">
         <v>371.3806294556657</v>
@@ -3758,7 +3758,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880226</v>
+        <v>6.081513486880169</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213014</v>
+        <v>73.69234550213008</v>
       </c>
       <c r="T41" t="n">
         <v>168.4225538535744</v>
       </c>
       <c r="U41" t="n">
-        <v>215.4997556728563</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V41" t="n">
-        <v>292.2568421840892</v>
+        <v>292.25684218409</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X41" t="n">
         <v>334.2356843924233</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700081</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.3365638958916</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1200567321666</v>
+        <v>80.44534366884194</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605235</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F43" t="n">
         <v>109.9256317368855</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379238</v>
+        <v>60.85700412379232</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400161</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S43" t="n">
-        <v>154.2736090453962</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T43" t="n">
-        <v>151.3788199267977</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7164219195672</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V43" t="n">
-        <v>216.6422270377823</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W43" t="n">
-        <v>251.0275820505453</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X43" t="n">
         <v>190.2142391029914</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.0892370660491</v>
+        <v>183.089237066049</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C44" t="n">
         <v>329.7774754849618</v>
@@ -3983,7 +3983,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E44" t="n">
-        <v>346.4349537862161</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F44" t="n">
         <v>371.3806294556657</v>
@@ -3995,7 +3995,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880226</v>
+        <v>6.081513486880183</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550213014</v>
+        <v>73.69234550213008</v>
       </c>
       <c r="T44" t="n">
         <v>168.4225538535744</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728563</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V44" t="n">
-        <v>292.2568421840892</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W44" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X44" t="n">
         <v>334.2356843924233</v>
       </c>
       <c r="Y44" t="n">
-        <v>350.7425223700079</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.3365638958916</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C46" t="n">
         <v>131.7514048125821</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321666</v>
+        <v>113.0692216007852</v>
       </c>
       <c r="E46" t="n">
-        <v>110.9385463605235</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>109.9256317368855</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H46" t="n">
-        <v>109.2595986282751</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.85700412379232</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400162</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.2736090453962</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U46" t="n">
-        <v>250.7164219195672</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V46" t="n">
-        <v>187.8670476475161</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W46" t="n">
-        <v>251.0275820505453</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X46" t="n">
         <v>190.2142391029914</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.0892370660491</v>
+        <v>183.089237066049</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1065.748406739692</v>
+        <v>1530.382484581575</v>
       </c>
       <c r="C2" t="n">
-        <v>1065.748406739692</v>
+        <v>1161.419967641163</v>
       </c>
       <c r="D2" t="n">
-        <v>707.4827081329413</v>
+        <v>803.1542690344124</v>
       </c>
       <c r="E2" t="n">
-        <v>707.4827081329413</v>
+        <v>803.1542690344124</v>
       </c>
       <c r="F2" t="n">
-        <v>700.5372073837378</v>
+        <v>392.1683642448048</v>
       </c>
       <c r="G2" t="n">
-        <v>541.0395078903825</v>
+        <v>377.9965460511256</v>
       </c>
       <c r="H2" t="n">
-        <v>211.3007166942733</v>
+        <v>48.25775485501632</v>
       </c>
       <c r="I2" t="n">
-        <v>48.2577548550163</v>
+        <v>48.25775485501632</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244782</v>
+        <v>143.3613405244785</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293498</v>
+        <v>406.6417666293503</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024633</v>
+        <v>785.5410436024638</v>
       </c>
       <c r="M2" t="n">
         <v>1223.74604078277</v>
@@ -4346,34 +4346,34 @@
         <v>2015.885456671744</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110676</v>
+        <v>2286.722307110677</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750815</v>
+        <v>2412.887742750816</v>
       </c>
       <c r="R2" t="n">
-        <v>2342.254609045091</v>
+        <v>2412.887742750816</v>
       </c>
       <c r="S2" t="n">
-        <v>2160.416384320154</v>
+        <v>2273.2904718275</v>
       </c>
       <c r="T2" t="n">
-        <v>2160.416384320154</v>
+        <v>2273.2904718275</v>
       </c>
       <c r="U2" t="n">
-        <v>2160.416384320154</v>
+        <v>2273.2904718275</v>
       </c>
       <c r="V2" t="n">
-        <v>1829.353496976583</v>
+        <v>2273.2904718275</v>
       </c>
       <c r="W2" t="n">
-        <v>1829.353496976583</v>
+        <v>1920.521816557386</v>
       </c>
       <c r="X2" t="n">
-        <v>1455.887738715503</v>
+        <v>1920.521816557386</v>
       </c>
       <c r="Y2" t="n">
-        <v>1065.748406739692</v>
+        <v>1530.382484581575</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>861.18639771835</v>
+        <v>814.3524755586716</v>
       </c>
       <c r="C3" t="n">
-        <v>686.733368437223</v>
+        <v>814.3524755586716</v>
       </c>
       <c r="D3" t="n">
-        <v>537.7989587759718</v>
+        <v>665.4180658974203</v>
       </c>
       <c r="E3" t="n">
-        <v>378.5615037705163</v>
+        <v>506.1806108919648</v>
       </c>
       <c r="F3" t="n">
-        <v>232.0269457974012</v>
+        <v>359.6460529188497</v>
       </c>
       <c r="G3" t="n">
         <v>221.6030265867035</v>
@@ -4404,55 +4404,55 @@
         <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.2577548550163</v>
+        <v>48.25775485501632</v>
       </c>
       <c r="J3" t="n">
-        <v>70.84789150583001</v>
+        <v>111.2074192719584</v>
       </c>
       <c r="K3" t="n">
-        <v>305.0597375842236</v>
+        <v>345.4192653503521</v>
       </c>
       <c r="L3" t="n">
-        <v>681.3908644604667</v>
+        <v>721.7503922265953</v>
       </c>
       <c r="M3" t="n">
-        <v>1172.530760772838</v>
+        <v>1212.890288538966</v>
       </c>
       <c r="N3" t="n">
-        <v>1692.376682095681</v>
+        <v>1732.73620986181</v>
       </c>
       <c r="O3" t="n">
-        <v>2101.518461710706</v>
+        <v>2141.877989476835</v>
       </c>
       <c r="P3" t="n">
-        <v>2412.887742750815</v>
+        <v>2412.887742750816</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750815</v>
+        <v>2412.887742750816</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841567</v>
+        <v>2354.422089841568</v>
       </c>
       <c r="S3" t="n">
-        <v>2193.780311634272</v>
+        <v>2193.780311634273</v>
       </c>
       <c r="T3" t="n">
-        <v>1994.366029972574</v>
+        <v>1994.366029972575</v>
       </c>
       <c r="U3" t="n">
-        <v>1766.187661648781</v>
+        <v>1766.187661648782</v>
       </c>
       <c r="V3" t="n">
-        <v>1531.035553417038</v>
+        <v>1531.035553417039</v>
       </c>
       <c r="W3" t="n">
-        <v>1276.798196688837</v>
+        <v>1276.798196688838</v>
       </c>
       <c r="X3" t="n">
-        <v>1068.946696483304</v>
+        <v>1068.946696483305</v>
       </c>
       <c r="Y3" t="n">
-        <v>861.18639771835</v>
+        <v>861.1863977183509</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.9968416694265</v>
+        <v>403.0512277998313</v>
       </c>
       <c r="C4" t="n">
-        <v>206.9968416694265</v>
+        <v>234.1150448719244</v>
       </c>
       <c r="D4" t="n">
-        <v>206.9968416694265</v>
+        <v>217.3689851444584</v>
       </c>
       <c r="E4" t="n">
-        <v>206.9968416694265</v>
+        <v>217.3689851444584</v>
       </c>
       <c r="F4" t="n">
-        <v>206.9968416694265</v>
+        <v>217.3689851444584</v>
       </c>
       <c r="G4" t="n">
-        <v>206.9968416694265</v>
+        <v>48.25775485501632</v>
       </c>
       <c r="H4" t="n">
-        <v>48.2577548550163</v>
+        <v>48.25775485501632</v>
       </c>
       <c r="I4" t="n">
-        <v>48.2577548550163</v>
+        <v>48.25775485501632</v>
       </c>
       <c r="J4" t="n">
-        <v>48.2577548550163</v>
+        <v>48.25775485501632</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461023</v>
+        <v>91.87143294461032</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384345</v>
+        <v>203.2083598384347</v>
       </c>
       <c r="M4" t="n">
-        <v>330.986661753429</v>
+        <v>330.9866617534292</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692855</v>
+        <v>461.1612976692859</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984529</v>
+        <v>565.3823477984532</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978483</v>
+        <v>631.0407786978486</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978483</v>
+        <v>631.0407786978486</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978483</v>
+        <v>631.0407786978486</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978483</v>
+        <v>631.0407786978486</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978483</v>
+        <v>631.0407786978486</v>
       </c>
       <c r="U4" t="n">
-        <v>631.0407786978483</v>
+        <v>631.0407786978486</v>
       </c>
       <c r="V4" t="n">
-        <v>496.4140117063871</v>
+        <v>631.0407786978486</v>
       </c>
       <c r="W4" t="n">
-        <v>206.9968416694265</v>
+        <v>631.0407786978486</v>
       </c>
       <c r="X4" t="n">
-        <v>206.9968416694265</v>
+        <v>403.0512277998313</v>
       </c>
       <c r="Y4" t="n">
-        <v>206.9968416694265</v>
+        <v>403.0512277998313</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2302.336936304455</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2444.366337089712</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2113.303449746141</v>
       </c>
       <c r="W5" t="n">
-        <v>2302.336936304455</v>
+        <v>1760.534794476027</v>
       </c>
       <c r="X5" t="n">
-        <v>2302.336936304455</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="Y5" t="n">
-        <v>2302.336936304455</v>
+        <v>1387.069036214947</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>528.5406308981343</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>528.5406308981343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.506187451444</v>
+        <v>1116.950579244872</v>
       </c>
       <c r="C8" t="n">
-        <v>1139.506187451444</v>
+        <v>747.9880623044608</v>
       </c>
       <c r="D8" t="n">
-        <v>781.2404888446938</v>
+        <v>389.7223636977103</v>
       </c>
       <c r="E8" t="n">
-        <v>781.2404888446938</v>
+        <v>389.7223636977103</v>
       </c>
       <c r="F8" t="n">
-        <v>774.2949880954903</v>
+        <v>382.7768629485068</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>368.8534588870977</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X8" t="n">
-        <v>1916.245359491378</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1526.106027515566</v>
+        <v>1503.550419308994</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.9658229629848</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="C10" t="n">
-        <v>210.9658229629848</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="D10" t="n">
-        <v>210.9658229629848</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="E10" t="n">
-        <v>210.9658229629848</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="F10" t="n">
-        <v>210.9658229629848</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="G10" t="n">
-        <v>210.9658229629848</v>
+        <v>55.66715041749728</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X10" t="n">
-        <v>210.9658229629848</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.9658229629848</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5045,46 +5045,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622688</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5124,7 +5124,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.7083461157127</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C13" t="n">
-        <v>490.9164446247779</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D13" t="n">
-        <v>340.7998052124422</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E13" t="n">
-        <v>192.8867116300491</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1873.116177844809</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1873.116177844809</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1873.116177844809</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1584.013310970452</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.556111024461</v>
+        <v>1329.328822764566</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.1389409875</v>
+        <v>1039.911652727605</v>
       </c>
       <c r="X13" t="n">
-        <v>895.1493900894826</v>
+        <v>811.9221018295875</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.3568109459525</v>
+        <v>591.1295226860574</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483405</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542187</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,28 +5355,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>876.4469737784536</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="C16" t="n">
-        <v>707.5107908505466</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="D16" t="n">
-        <v>557.3941514382109</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558177</v>
+        <v>333.7837969034416</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>186.8938494055312</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>186.8938494055312</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5434,52 +5434,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927049</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892254</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598118</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518532</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952191</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104706</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104706</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931532</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.657581931532</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1764.657581931532</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1764.657581931532</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W16" t="n">
-        <v>1475.240411894571</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X16" t="n">
-        <v>1247.250860996554</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y16" t="n">
-        <v>1026.458281853024</v>
+        <v>481.6968904858346</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>818.2062848686776</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L17" t="n">
-        <v>1682.725100522032</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>704.2840989361212</v>
+        <v>181.1112734427662</v>
       </c>
       <c r="C19" t="n">
-        <v>704.2840989361212</v>
+        <v>181.1112734427662</v>
       </c>
       <c r="D19" t="n">
-        <v>704.2840989361212</v>
+        <v>181.1112734427662</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5698,25 +5698,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U19" t="n">
-        <v>1175.349733803321</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V19" t="n">
-        <v>1175.349733803321</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W19" t="n">
-        <v>885.9325637663609</v>
+        <v>811.5418683145533</v>
       </c>
       <c r="X19" t="n">
-        <v>885.9325637663609</v>
+        <v>583.552317416536</v>
       </c>
       <c r="Y19" t="n">
-        <v>885.9325637663609</v>
+        <v>362.7597382730058</v>
       </c>
     </row>
     <row r="20">
@@ -5729,10 +5729,10 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
@@ -5741,7 +5741,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,28 +5829,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>525.6262188911248</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1538185715858</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1538185715858</v>
+        <v>302.4735561031423</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>302.4735561031423</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>302.4735561031423</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,19 +5923,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
         <v>1734.576850674229</v>
@@ -5944,16 +5944,16 @@
         <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>1445.473983799873</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>1156.056813762912</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X22" t="n">
-        <v>928.0672628648947</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y22" t="n">
-        <v>707.2746837213646</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5990,25 +5990,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>685.1208104866391</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1549.639626139994</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.189928969822</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3507.942201196469</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,40 +6066,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>390.3640755286979</v>
+        <v>713.5009252592425</v>
       </c>
       <c r="C25" t="n">
-        <v>390.3640755286979</v>
+        <v>544.5647423313358</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>394.4481029189999</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>246.535009336607</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>99.64506183869668</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6166,31 +6166,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>1089.419261293915</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W25" t="n">
-        <v>800.0020912569549</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X25" t="n">
-        <v>572.0125403589376</v>
+        <v>895.1493900894823</v>
       </c>
       <c r="Y25" t="n">
-        <v>572.0125403589376</v>
+        <v>895.1493900894823</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6236,7 +6236,7 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6324,7 +6324,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,16 +6333,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6388,46 +6388,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208129</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838522</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858348</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423047</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>416.1091927888621</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6543,10 +6543,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839437</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839437</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839437</v>
+        <v>653.6966825353828</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839437</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953301</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1314.023071128209</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>1024.605901091249</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>1024.605901091249</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>803.8133219477185</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1971.087962216427</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2504.619866888352</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N32" t="n">
-        <v>3484.372139114998</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>729.2066409118285</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6862,10 +6862,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
         <v>1346.796070598116</v>
@@ -6883,25 +6883,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.7880996267</v>
+        <v>1722.090429196224</v>
       </c>
       <c r="V34" t="n">
-        <v>999.103611420813</v>
+        <v>1467.405940990337</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838524</v>
+        <v>1177.988770953376</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>949.9992200553586</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>729.2066409118285</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C35" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D35" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E35" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529683</v>
+        <v>731.6764154529687</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424554</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571344</v>
+        <v>90.72827659571335</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967279</v>
       </c>
       <c r="J35" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K35" t="n">
-        <v>1095.593445794351</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L35" t="n">
-        <v>1546.62765904276</v>
+        <v>1058.318051576954</v>
       </c>
       <c r="M35" t="n">
-        <v>2080.159563714684</v>
+        <v>2036.868354406782</v>
       </c>
       <c r="N35" t="n">
-        <v>2647.224238984522</v>
+        <v>3016.620626633429</v>
       </c>
       <c r="O35" t="n">
-        <v>3527.188889313977</v>
+        <v>3519.593097512766</v>
       </c>
       <c r="P35" t="n">
-        <v>3921.963255671155</v>
+        <v>3914.367463869944</v>
       </c>
       <c r="Q35" t="n">
-        <v>4170.249617426837</v>
+        <v>4162.653825625626</v>
       </c>
       <c r="R35" t="n">
         <v>4229.266683983639</v>
@@ -6968,7 +6968,7 @@
         <v>3984.706179583938</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V35" t="n">
         <v>3471.820727203185</v>
@@ -6980,7 +6980,7 @@
         <v>2817.294225360972</v>
       </c>
       <c r="Y35" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="36">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>582.2589880867689</v>
+        <v>768.1716476727538</v>
       </c>
       <c r="C37" t="n">
-        <v>449.1767610033526</v>
+        <v>635.0894205893376</v>
       </c>
       <c r="D37" t="n">
-        <v>334.9140774355075</v>
+        <v>520.8267370214926</v>
       </c>
       <c r="E37" t="n">
-        <v>334.9140774355075</v>
+        <v>437.8334370515343</v>
       </c>
       <c r="F37" t="n">
-        <v>256.4202859544884</v>
+        <v>326.7974453981146</v>
       </c>
       <c r="G37" t="n">
-        <v>256.4202859544884</v>
+        <v>194.9485646173243</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0570550168368</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="I37" t="n">
         <v>84.58533367967279</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497938</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K37" t="n">
         <v>403.9760733218554</v>
@@ -7114,31 +7114,31 @@
         <v>2113.740704045765</v>
       </c>
       <c r="Q37" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R37" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S37" t="n">
-        <v>2016.6830325948</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T37" t="n">
-        <v>1830.770373008817</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.521461978951</v>
+        <v>1763.434121564935</v>
       </c>
       <c r="V37" t="n">
-        <v>1358.690929617555</v>
+        <v>1544.603589203539</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.127715425084</v>
+        <v>1291.040375011069</v>
       </c>
       <c r="X37" t="n">
-        <v>912.9921203715577</v>
+        <v>1098.904779957542</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.053497072518</v>
+        <v>913.9661566585028</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.262965010021</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C38" t="n">
         <v>1779.154403914099</v>
       </c>
       <c r="D38" t="n">
-        <v>1456.74266115184</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E38" t="n">
         <v>1106.808364398086</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529692</v>
+        <v>731.6764154529687</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424556</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571344</v>
+        <v>90.72827659571335</v>
       </c>
       <c r="I38" t="n">
         <v>84.58533367967279</v>
@@ -7178,22 +7178,22 @@
         <v>607.2838383285448</v>
       </c>
       <c r="L38" t="n">
-        <v>1471.8026539819</v>
+        <v>1058.318051576954</v>
       </c>
       <c r="M38" t="n">
-        <v>2005.334558653824</v>
+        <v>2036.868354406782</v>
       </c>
       <c r="N38" t="n">
-        <v>2552.113375712606</v>
+        <v>3016.620626633429</v>
       </c>
       <c r="O38" t="n">
-        <v>3432.078026042061</v>
+        <v>3519.593097512766</v>
       </c>
       <c r="P38" t="n">
-        <v>3826.852392399239</v>
+        <v>3914.367463869944</v>
       </c>
       <c r="Q38" t="n">
-        <v>4170.249617426837</v>
+        <v>4162.653825625626</v>
       </c>
       <c r="R38" t="n">
         <v>4229.266683983639</v>
@@ -7205,19 +7205,19 @@
         <v>3984.706179583938</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V38" t="n">
         <v>3471.820727203185</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.294225360973</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.008849229652</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="39">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>636.2354894847506</v>
+        <v>726.8603259970714</v>
       </c>
       <c r="C40" t="n">
-        <v>503.1532624013342</v>
+        <v>593.7780989136552</v>
       </c>
       <c r="D40" t="n">
-        <v>388.8905788334891</v>
+        <v>479.5154153458101</v>
       </c>
       <c r="E40" t="n">
-        <v>388.2691667352788</v>
+        <v>367.4562776079077</v>
       </c>
       <c r="F40" t="n">
-        <v>388.2691667352788</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="G40" t="n">
-        <v>256.4202859544884</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="H40" t="n">
-        <v>146.0570550168368</v>
+        <v>146.0570550168366</v>
       </c>
       <c r="I40" t="n">
         <v>84.58533367967279</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497938</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K40" t="n">
         <v>403.9760733218554</v>
@@ -7348,34 +7348,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q40" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R40" t="n">
-        <v>2226.491462321464</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S40" t="n">
-        <v>2070.659533992781</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T40" t="n">
-        <v>1884.746874406798</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U40" t="n">
-        <v>1631.497963376932</v>
+        <v>1722.122799889253</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.667431015536</v>
+        <v>1503.292267527856</v>
       </c>
       <c r="W40" t="n">
-        <v>1159.104216823066</v>
+        <v>1249.729053335386</v>
       </c>
       <c r="X40" t="n">
-        <v>966.9686217695391</v>
+        <v>1057.59345828186</v>
       </c>
       <c r="Y40" t="n">
-        <v>782.0299984704997</v>
+        <v>872.6548349828204</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D41" t="n">
         <v>1456.742661151839</v>
@@ -7397,40 +7397,40 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424556</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571342</v>
+        <v>90.72827659571337</v>
       </c>
       <c r="I41" t="n">
         <v>84.58533367967279</v>
       </c>
       <c r="J41" t="n">
-        <v>273.4644646386982</v>
+        <v>440.8701136590512</v>
       </c>
       <c r="K41" t="n">
-        <v>607.2838383285448</v>
+        <v>774.6894873488977</v>
       </c>
       <c r="L41" t="n">
-        <v>1058.318051576954</v>
+        <v>1639.208303002252</v>
       </c>
       <c r="M41" t="n">
-        <v>2036.868354406782</v>
+        <v>2412.378345701604</v>
       </c>
       <c r="N41" t="n">
-        <v>3016.620626633429</v>
+        <v>2959.157162760387</v>
       </c>
       <c r="O41" t="n">
-        <v>3527.188889313977</v>
+        <v>3462.129633639724</v>
       </c>
       <c r="P41" t="n">
-        <v>3921.963255671155</v>
+        <v>3856.903999996902</v>
       </c>
       <c r="Q41" t="n">
-        <v>4170.249617426837</v>
+        <v>4105.190361752584</v>
       </c>
       <c r="R41" t="n">
         <v>4229.266683983639</v>
@@ -7445,16 +7445,16 @@
         <v>3767.029658702265</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="42">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>615.2637487567945</v>
+        <v>582.2589880867695</v>
       </c>
       <c r="C43" t="n">
-        <v>615.2637487567945</v>
+        <v>582.2589880867695</v>
       </c>
       <c r="D43" t="n">
-        <v>501.0010651889494</v>
+        <v>501.0010651889493</v>
       </c>
       <c r="E43" t="n">
-        <v>388.9419274510469</v>
+        <v>388.9419274510468</v>
       </c>
       <c r="F43" t="n">
-        <v>277.9059357976272</v>
+        <v>277.9059357976271</v>
       </c>
       <c r="G43" t="n">
         <v>146.0570550168368</v>
@@ -7567,52 +7567,52 @@
         <v>84.58533367967279</v>
       </c>
       <c r="J43" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497935</v>
       </c>
       <c r="K43" t="n">
         <v>403.9760733218552</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
       </c>
       <c r="N43" t="n">
-        <v>1511.52268044532</v>
+        <v>1511.522680445321</v>
       </c>
       <c r="O43" t="n">
-        <v>1845.992741488919</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q43" t="n">
         <v>2226.491462321464</v>
       </c>
       <c r="R43" t="n">
-        <v>2172.514960923482</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S43" t="n">
-        <v>2016.683032594799</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T43" t="n">
-        <v>1863.775133678842</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U43" t="n">
-        <v>1610.526222648976</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V43" t="n">
-        <v>1391.69569028758</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W43" t="n">
-        <v>1138.13247609511</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X43" t="n">
-        <v>945.996881041583</v>
+        <v>912.9921203715579</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.0582577425436</v>
+        <v>728.0534970725184</v>
       </c>
     </row>
     <row r="44">
@@ -7625,67 +7625,67 @@
         <v>2112.26296501002</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D44" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E44" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424556</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571342</v>
+        <v>90.72827659571337</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J44" t="n">
-        <v>273.4644646386982</v>
+        <v>440.8701136590512</v>
       </c>
       <c r="K44" t="n">
-        <v>607.2838383285448</v>
+        <v>774.6894873488977</v>
       </c>
       <c r="L44" t="n">
-        <v>1058.318051576954</v>
+        <v>1225.723700597307</v>
       </c>
       <c r="M44" t="n">
-        <v>2036.868354406782</v>
+        <v>1759.255605269231</v>
       </c>
       <c r="N44" t="n">
-        <v>3016.620626633429</v>
+        <v>2582.164983310268</v>
       </c>
       <c r="O44" t="n">
-        <v>3527.188889313977</v>
+        <v>3462.129633639723</v>
       </c>
       <c r="P44" t="n">
-        <v>3921.963255671155</v>
+        <v>3856.903999996901</v>
       </c>
       <c r="Q44" t="n">
-        <v>4170.249617426837</v>
+        <v>4105.190361752583</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U44" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X44" t="n">
         <v>2817.294225360972</v>
@@ -7722,7 +7722,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J45" t="n">
         <v>178.2626031702901</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>797.2374854406979</v>
+        <v>636.2354894847507</v>
       </c>
       <c r="C46" t="n">
-        <v>664.1552583572818</v>
+        <v>503.1532624013345</v>
       </c>
       <c r="D46" t="n">
-        <v>549.8925747894369</v>
+        <v>388.9419274510468</v>
       </c>
       <c r="E46" t="n">
-        <v>437.8334370515345</v>
+        <v>388.9419274510468</v>
       </c>
       <c r="F46" t="n">
-        <v>326.7974453981147</v>
+        <v>277.9059357976271</v>
       </c>
       <c r="G46" t="n">
-        <v>194.9485646173244</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="H46" t="n">
-        <v>84.58533367967279</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497934</v>
+        <v>164.8484282497935</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218548</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L46" t="n">
-        <v>755.6763338935364</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M46" t="n">
-        <v>1134.97384161627</v>
+        <v>1134.973841616271</v>
       </c>
       <c r="N46" t="n">
-        <v>1511.52268044532</v>
+        <v>1511.522680445321</v>
       </c>
       <c r="O46" t="n">
-        <v>1845.992741488919</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P46" t="n">
         <v>2113.740704045764</v>
@@ -7828,28 +7828,28 @@
         <v>2226.491462321464</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.514960923483</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="S46" t="n">
-        <v>2016.6830325948</v>
+        <v>2070.659533992781</v>
       </c>
       <c r="T46" t="n">
-        <v>2016.6830325948</v>
+        <v>1884.746874406798</v>
       </c>
       <c r="U46" t="n">
-        <v>1763.434121564934</v>
+        <v>1631.497963376932</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.669426971484</v>
+        <v>1412.667431015536</v>
       </c>
       <c r="W46" t="n">
-        <v>1320.106212779013</v>
+        <v>1159.104216823066</v>
       </c>
       <c r="X46" t="n">
-        <v>1127.970617725487</v>
+        <v>966.9686217695391</v>
       </c>
       <c r="Y46" t="n">
-        <v>943.031994426447</v>
+        <v>782.0299984704998</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>85.32383557664289</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6955688761708</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.06279368686283</v>
+        <v>53.06279368686275</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>205.0727796301213</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,25 +8930,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>77.3579543087709</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>201.9664098701124</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>67.53663776704337</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,10 +9884,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,13 +10355,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>246.454569480845</v>
       </c>
       <c r="O32" t="n">
-        <v>23.80814351663639</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>20.49076586975275</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>7.672516970919659</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,25 +10826,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>96.07157906254102</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>7.672516970919659</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>242.0587252802296</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>7.672516970920128</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,13 +11303,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>278.9197585679336</v>
       </c>
       <c r="O44" t="n">
-        <v>7.672516970920128</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>165.4728386226024</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>6.537137292752064</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314382</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.32078518811275</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>54.33552810675533</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>61.73922604214115</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>11.27817050490302</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>52.92914478228418</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.53483223066578</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>161.982621142629</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>89.41249337437233</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696609</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>16.14213605696654</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>114.490579574757</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25123,13 +25123,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>54.30133166621746</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>16.14213605696588</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>110.9385463605235</v>
+        <v>28.77517939026467</v>
       </c>
       <c r="F37" t="n">
-        <v>32.21677817067662</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729825</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.85700412379229</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>110.3233483832955</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368855</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400161</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>143.1553245311981</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>131.7514048125821</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>32.67471306332465</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>109.2595986282751</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>32.67471306332578</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.05083513138136198</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379239</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>184.0535329901235</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>28.77517939026622</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26314,10 +26314,10 @@
         <v>307890.6636991063</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991065</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
         <v>297811.3401652377</v>
@@ -26326,7 +26326,7 @@
         <v>297811.3401652375</v>
       </c>
       <c r="G2" t="n">
-        <v>297811.3401652377</v>
+        <v>297811.3401652375</v>
       </c>
       <c r="H2" t="n">
         <v>297811.3401652375</v>
@@ -26338,22 +26338,22 @@
         <v>297811.3401652376</v>
       </c>
       <c r="K2" t="n">
+        <v>297811.3401652376</v>
+      </c>
+      <c r="L2" t="n">
         <v>297811.3401652375</v>
       </c>
-      <c r="L2" t="n">
-        <v>297811.3401652376</v>
-      </c>
       <c r="M2" t="n">
-        <v>305427.492250569</v>
+        <v>305427.4922505689</v>
       </c>
       <c r="N2" t="n">
-        <v>305427.492250569</v>
+        <v>305427.4922505689</v>
       </c>
       <c r="O2" t="n">
-        <v>305427.4922505689</v>
+        <v>305427.4922505688</v>
       </c>
       <c r="P2" t="n">
-        <v>305427.492250569</v>
+        <v>305427.4922505688</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394275</v>
+        <v>507203.1428394279</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217417971</v>
+        <v>78665.28217417936</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410737</v>
+        <v>157829.4001410736</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.9436702215</v>
+        <v>18289.94367022147</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>123848.791188175</v>
+        <v>123848.7911881751</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223242.9088455551</v>
+        <v>223242.908845555</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="F4" t="n">
         <v>25090.72367499382</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25090.72367499384</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499385</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499382</v>
@@ -26445,19 +26445,19 @@
         <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>53328.24410000348</v>
+        <v>53328.24410000355</v>
       </c>
       <c r="N4" t="n">
-        <v>53328.24410000347</v>
+        <v>53328.24410000355</v>
       </c>
       <c r="O4" t="n">
-        <v>53328.24410000347</v>
+        <v>53328.24410000349</v>
       </c>
       <c r="P4" t="n">
-        <v>53328.24410000348</v>
+        <v>53328.24410000352</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133437</v>
+        <v>77204.6887113344</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26479,16 +26479,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26509,7 +26509,7 @@
         <v>91026.0498212368</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123678</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-499760.0766972107</v>
+        <v>-499760.0766972111</v>
       </c>
       <c r="C6" t="n">
-        <v>-54698.20246621425</v>
+        <v>-54698.20246621408</v>
       </c>
       <c r="D6" t="n">
-        <v>23967.07970796537</v>
+        <v>23967.07970796528</v>
       </c>
       <c r="E6" t="n">
-        <v>-551040.3157568764</v>
+        <v>-551107.5112471022</v>
       </c>
       <c r="F6" t="n">
-        <v>176337.0982365302</v>
+        <v>176269.9027463042</v>
       </c>
       <c r="G6" t="n">
-        <v>176337.0982365303</v>
+        <v>176269.9027463042</v>
       </c>
       <c r="H6" t="n">
-        <v>176337.0982365301</v>
+        <v>176269.9027463042</v>
       </c>
       <c r="I6" t="n">
-        <v>176337.0982365301</v>
+        <v>176269.9027463043</v>
       </c>
       <c r="J6" t="n">
-        <v>18507.69809545639</v>
+        <v>18440.50260523071</v>
       </c>
       <c r="K6" t="n">
-        <v>158047.1545663085</v>
+        <v>157979.9590760829</v>
       </c>
       <c r="L6" t="n">
-        <v>176337.0982365301</v>
+        <v>176269.9027463042</v>
       </c>
       <c r="M6" t="n">
-        <v>37224.40714115372</v>
+        <v>37207.98599816317</v>
       </c>
       <c r="N6" t="n">
-        <v>161073.1983293287</v>
+        <v>161056.7771863382</v>
       </c>
       <c r="O6" t="n">
-        <v>161073.1983293286</v>
+        <v>161056.7771863382</v>
       </c>
       <c r="P6" t="n">
-        <v>161073.1983293287</v>
+        <v>161056.7771863382</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688984</v>
+        <v>316.5685789688987</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877038</v>
+        <v>603.221935687704</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688984</v>
+        <v>316.5685789688987</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818822</v>
+        <v>61.17508524818788</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877038</v>
+        <v>603.221935687704</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685174</v>
+        <v>71.06533706685161</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877038</v>
+        <v>603.221935687704</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685174</v>
+        <v>71.06533706685161</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877038</v>
+        <v>603.221935687704</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685174</v>
+        <v>71.06533706685161</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>256.1273775133208</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.4125322208643</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>69.92680236866691</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>41.81854426360502</v>
       </c>
       <c r="T2" t="n">
         <v>217.5248788930304</v>
@@ -27436,13 +27436,13 @@
         <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>120.1676007117848</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>126.342916050234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>132.036873888021</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4201179865476</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
         <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255601</v>
+        <v>52.99928112255597</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739072</v>
+        <v>38.36018782739067</v>
       </c>
       <c r="R4" t="n">
-        <v>151.625388236511</v>
+        <v>151.6253882365109</v>
       </c>
       <c r="S4" t="n">
         <v>214.0680412192119</v>
@@ -27594,13 +27594,13 @@
         <v>286.2878914634775</v>
       </c>
       <c r="V4" t="n">
-        <v>118.8571440022814</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>172.490593296428</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>55.44764369387582</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>20.99218357687786</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>24.55845657277757</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>164.0927167131525</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7182761106009821</v>
+        <v>154.4639619306336</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28059,7 +28059,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.371263197260942e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.732907316589262e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.425948325616095e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2.756044550827055e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604571</v>
+        <v>35.4954162860458</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604493</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.4954162860455</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604571</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392555</v>
+        <v>1.272637503392557</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161901</v>
+        <v>13.03339883161903</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954154</v>
+        <v>49.0633573495416</v>
       </c>
       <c r="J2" t="n">
-        <v>108.013517303564</v>
+        <v>108.0135173035641</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221709</v>
+        <v>161.8842628221711</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166209</v>
+        <v>200.8317428166211</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175782</v>
+        <v>223.4640100175785</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240923</v>
+        <v>227.0798913240926</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497326</v>
+        <v>214.4251021497328</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847289</v>
+        <v>183.0068637847291</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944829</v>
+        <v>137.4305331944831</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248268</v>
+        <v>79.94231557248277</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855789</v>
+        <v>29.00022710855792</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100914</v>
+        <v>5.570970671100921</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714044</v>
+        <v>0.1018110002714045</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859324</v>
+        <v>0.6809210943859332</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674664</v>
+        <v>6.576264253674672</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986654</v>
+        <v>23.44399381986656</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933058</v>
+        <v>64.33211093933065</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631881</v>
+        <v>109.9538242631882</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665596</v>
+        <v>147.8464858665598</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380496</v>
+        <v>172.5298755380498</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648746</v>
+        <v>177.0962279648748</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313758</v>
+        <v>162.008450031376</v>
       </c>
       <c r="P3" t="n">
-        <v>130.026064067433</v>
+        <v>130.0260640674332</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915868</v>
+        <v>86.91898039915877</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248799</v>
+        <v>42.27683777248804</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861589</v>
+        <v>12.6478106786159</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739788</v>
+        <v>2.744589849739791</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012715</v>
+        <v>0.0447974404201272</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111282</v>
+        <v>0.5708613719111288</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173489</v>
+        <v>5.075476561173494</v>
       </c>
       <c r="I4" t="n">
-        <v>17.1673583480183</v>
+        <v>17.16735834801831</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411676</v>
+        <v>40.3598989941168</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840197</v>
+        <v>66.32371211840204</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667812</v>
+        <v>84.8715170566782</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148711</v>
+        <v>89.48511487148721</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890934</v>
+        <v>87.35735884890944</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009522023</v>
+        <v>80.68866009522031</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823315</v>
+        <v>69.04308810823322</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430366</v>
+        <v>47.80185542430371</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065854</v>
+        <v>25.66800314065857</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760295</v>
+        <v>9.948556817760306</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711183</v>
+        <v>2.439134952711186</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0311378930133343</v>
+        <v>0.03113789301333434</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895148</v>
+        <v>96.0642279489516</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483551</v>
+        <v>265.9398243483553</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970841</v>
+        <v>382.7265423970842</v>
       </c>
       <c r="M2" t="n">
-        <v>442.631310283138</v>
+        <v>442.6313102831382</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394856</v>
+        <v>435.0137521394859</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907913</v>
+        <v>365.1270719907915</v>
       </c>
       <c r="P2" t="n">
-        <v>273.572576200942</v>
+        <v>273.5725762009422</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799381</v>
+        <v>127.4398339799383</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>22.81831984930677</v>
+        <v>63.58551961307279</v>
       </c>
       <c r="K3" t="n">
-        <v>236.5776223014076</v>
+        <v>236.5776223014078</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901446</v>
+        <v>380.1324513901448</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660312</v>
+        <v>496.1009053660314</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250949</v>
+        <v>525.096890225095</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636609</v>
+        <v>413.274524863661</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930399</v>
+        <v>273.7472255292737</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251912</v>
+        <v>44.05422029251919</v>
       </c>
       <c r="L4" t="n">
         <v>112.4615423169943</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333277</v>
+        <v>129.0689918333278</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281379</v>
+        <v>131.489531228138</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092599</v>
+        <v>105.27378800926</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312664</v>
+        <v>66.32164737312671</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35413,7 +35413,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35428,10 +35428,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>455.8670844338408</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>629.6597897216824</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721702008</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>539.1576964255129</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>404.7279243224438</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36534,7 +36534,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,10 +36604,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>323.7860185257249</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
@@ -37075,13 +37075,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>798.7564048937564</v>
       </c>
       <c r="O32" t="n">
-        <v>531.8611444048555</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37090,7 +37090,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>572.7926012826642</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>67.28571551314444</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911193</v>
+        <v>81.07383289911202</v>
       </c>
       <c r="K37" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L37" t="n">
-        <v>355.2527884562438</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M37" t="n">
         <v>383.1287956795296</v>
@@ -37476,13 +37476,13 @@
         <v>380.3523624535858</v>
       </c>
       <c r="O37" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P37" t="n">
         <v>270.4524874311562</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>346.8658838662605</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>67.28571551314444</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911193</v>
+        <v>81.07383289911201</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L40" t="n">
-        <v>355.2527884562438</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M40" t="n">
         <v>383.1287956795296</v>
       </c>
       <c r="N40" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O40" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P40" t="n">
         <v>270.4524874311562</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>780.9798411104564</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>515.7255178591392</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911193</v>
+        <v>81.07383289911199</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L43" t="n">
-        <v>355.2527884562438</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M43" t="n">
         <v>383.1287956795296</v>
@@ -37950,7 +37950,7 @@
         <v>380.3523624535858</v>
       </c>
       <c r="O43" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P43" t="n">
         <v>270.4524874311562</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38023,13 +38023,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>831.2215939808451</v>
       </c>
       <c r="O44" t="n">
-        <v>515.7255178591392</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911193</v>
+        <v>81.07383289911199</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L46" t="n">
-        <v>355.2527884562438</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M46" t="n">
         <v>383.1287956795296</v>
@@ -38187,7 +38187,7 @@
         <v>380.3523624535858</v>
       </c>
       <c r="O46" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P46" t="n">
         <v>270.4524874311562</v>
